--- a/铜/eta/LME铜价_月度数据.xlsx
+++ b/铜/eta/LME铜价_月度数据.xlsx
@@ -458,7 +458,7 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>10782.2</v>
+        <v>10858.1</v>
       </c>
     </row>
     <row r="3">
@@ -468,10 +468,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10632.7</v>
+        <v>10731.4</v>
       </c>
       <c r="C3" t="n">
-        <v>10464</v>
+        <v>10591</v>
       </c>
     </row>
     <row r="4">
@@ -484,7 +484,7 @@
         <v>10059.9</v>
       </c>
       <c r="C4" t="n">
-        <v>10057.8</v>
+        <v>10057.9</v>
       </c>
     </row>
     <row r="5">
@@ -497,7 +497,7 @@
         <v>9751.799999999999</v>
       </c>
       <c r="C5" t="n">
-        <v>9754.9</v>
+        <v>9755.1</v>
       </c>
     </row>
     <row r="6">
@@ -510,7 +510,7 @@
         <v>9777.1</v>
       </c>
       <c r="C6" t="n">
-        <v>9774.5</v>
+        <v>9774.799999999999</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         <v>9704.4</v>
       </c>
       <c r="C7" t="n">
-        <v>9705.200000000001</v>
+        <v>9705.5</v>
       </c>
     </row>
     <row r="8">
@@ -536,7 +536,7 @@
         <v>9506</v>
       </c>
       <c r="C8" t="n">
-        <v>9509</v>
+        <v>9509.9</v>
       </c>
     </row>
     <row r="9">
@@ -549,7 +549,7 @@
         <v>9207.299999999999</v>
       </c>
       <c r="C9" t="n">
-        <v>9206.200000000001</v>
+        <v>9204.200000000001</v>
       </c>
     </row>
     <row r="10">
@@ -562,7 +562,7 @@
         <v>9759.5</v>
       </c>
       <c r="C10" t="n">
-        <v>9762</v>
+        <v>9760.200000000001</v>
       </c>
     </row>
     <row r="11">
@@ -575,7 +575,7 @@
         <v>9398.9</v>
       </c>
       <c r="C11" t="n">
-        <v>9397.200000000001</v>
+        <v>9396.1</v>
       </c>
     </row>
     <row r="12">
@@ -588,7 +588,7 @@
         <v>9110.700000000001</v>
       </c>
       <c r="C12" t="n">
-        <v>9113.700000000001</v>
+        <v>9113.200000000001</v>
       </c>
     </row>
     <row r="13">
@@ -614,7 +614,7 @@
         <v>9197.1</v>
       </c>
       <c r="C14" t="n">
-        <v>9194.299999999999</v>
+        <v>9194.1</v>
       </c>
     </row>
     <row r="15">
@@ -627,7 +627,7 @@
         <v>9684.9</v>
       </c>
       <c r="C15" t="n">
-        <v>9681.6</v>
+        <v>9682.299999999999</v>
       </c>
     </row>
     <row r="16">
@@ -640,7 +640,7 @@
         <v>9390.9</v>
       </c>
       <c r="C16" t="n">
-        <v>9389.299999999999</v>
+        <v>9391.5</v>
       </c>
     </row>
     <row r="17">
@@ -666,7 +666,7 @@
         <v>9517.5</v>
       </c>
       <c r="C18" t="n">
-        <v>9512.700000000001</v>
+        <v>9511.799999999999</v>
       </c>
     </row>
     <row r="19">
@@ -679,7 +679,7 @@
         <v>9792.5</v>
       </c>
       <c r="C19" t="n">
-        <v>9798.799999999999</v>
+        <v>9799</v>
       </c>
     </row>
     <row r="20">
@@ -692,7 +692,7 @@
         <v>10249</v>
       </c>
       <c r="C20" t="n">
-        <v>10245</v>
+        <v>10246</v>
       </c>
     </row>
     <row r="21">
@@ -705,7 +705,7 @@
         <v>9602.200000000001</v>
       </c>
       <c r="C21" t="n">
-        <v>9597.700000000001</v>
+        <v>9597.5</v>
       </c>
     </row>
     <row r="22">
@@ -718,7 +718,7 @@
         <v>8792</v>
       </c>
       <c r="C22" t="n">
-        <v>8789.799999999999</v>
+        <v>8791.4</v>
       </c>
     </row>
     <row r="23">
@@ -731,7 +731,7 @@
         <v>8404.5</v>
       </c>
       <c r="C23" t="n">
-        <v>8406.4</v>
+        <v>8406.5</v>
       </c>
     </row>
     <row r="24">
@@ -744,7 +744,7 @@
         <v>8441.1</v>
       </c>
       <c r="C24" t="n">
-        <v>8433.9</v>
+        <v>8433.799999999999</v>
       </c>
     </row>
   </sheetData>
